--- a/LastMileAPP/CPINT.xlsx
+++ b/LastMileAPP/CPINT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Tento_zošit"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slaso\Documents\GitHub\one folder to rule them all\Hlavna aplikacia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slaso\source\repos\LastMileAPP\LastMileAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1693,110 +1693,110 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1887,160 +1887,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4545605</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>573787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Obrázok 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7B07B5-FAE2-FB54-2448-E1CCD3E523B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="851793" y="74544"/>
-          <a:ext cx="4861660" cy="1410330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>248</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147266</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obrázok 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94490EEA-3500-4A23-96AC-19B01E18C0FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="43773"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="653143" y="14681516"/>
-          <a:ext cx="14014422" cy="1533465"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>847189</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1279014</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>547505</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obrázok 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F91FD3D-CBAA-C8DC-12EB-C06FEB5CD61F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1" r="22743" b="22464"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8809973" y="523476"/>
-          <a:ext cx="5749612" cy="1124181"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2359,10 +2205,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -2372,10 +2218,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -2396,73 +2242,73 @@
     </row>
     <row r="6" spans="1:20" outlineLevel="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="120"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:20" outlineLevel="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="120"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:20" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="123"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
     </row>
     <row r="10" spans="1:20" ht="19.7" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A11" s="2"/>
@@ -2679,19 +2525,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="106" t="s">
+      <c r="M20" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="104" t="s">
+      <c r="N20" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="104" t="s">
+      <c r="O20" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="107" t="s">
+      <c r="P20" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="106" t="s">
+      <c r="Q20" s="134" t="s">
         <v>30</v>
       </c>
       <c r="T20" s="9"/>
@@ -2708,11 +2554,11 @@
       <c r="J21" s="66"/>
       <c r="K21" s="67"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="106"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="134"/>
       <c r="R21" s="11"/>
       <c r="T21" s="9"/>
     </row>
@@ -2791,16 +2637,16 @@
       </c>
       <c r="K25" s="82">
         <f ca="1">TODAY()</f>
-        <v>45928</v>
+        <v>45949</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="133" t="s">
+      <c r="N25" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="134"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
       <c r="R25" s="13"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -2826,16 +2672,16 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="19.5">
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
       <c r="M27" s="5"/>
       <c r="N27" s="96"/>
       <c r="O27" s="97"/>
@@ -2876,26 +2722,26 @@
     <row r="31" spans="2:20" ht="15" customHeight="1">
       <c r="B31" s="47"/>
       <c r="K31" s="48"/>
-      <c r="M31" s="108" t="s">
+      <c r="M31" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="110" t="s">
+      <c r="N31" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="112" t="s">
+      <c r="O31" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="P31" s="128" t="s">
+      <c r="P31" s="115" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="15" customHeight="1">
       <c r="B32" s="47"/>
       <c r="K32" s="48"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="129"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="116"/>
     </row>
     <row r="33" spans="2:18" ht="16.5" thickBot="1">
       <c r="B33" s="47"/>
@@ -2920,16 +2766,16 @@
     <row r="34" spans="2:18" ht="26.25" customHeight="1">
       <c r="B34" s="47"/>
       <c r="K34" s="48"/>
-      <c r="M34" s="135" t="s">
+      <c r="M34" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="137" t="s">
+      <c r="N34" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="112" t="s">
+      <c r="O34" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="128" t="s">
+      <c r="P34" s="115" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2944,10 +2790,10 @@
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
       <c r="K35" s="51"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="129"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="116"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
     </row>
@@ -2973,12 +2819,8 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="P20:P21"/>
     <mergeCell ref="M34:M35"/>
     <mergeCell ref="N34:N35"/>
     <mergeCell ref="O34:O35"/>
@@ -2990,13 +2832,16 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.1" bottom="0.75" header="0.5" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>